--- a/SyntaxTreeTools/CondaCompletionsSpec 2022-08-13.xlsx
+++ b/SyntaxTreeTools/CondaCompletionsSpec 2022-08-13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\csharp\POSH-Resolve-Argument\Conda-help-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\csharp\POSH-Resolve-Argument\SyntaxTreeTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB74779-15B0-49DE-9F0F-F67E0B81E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656F081-429F-40C0-BA36-DAB906E63D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CondaCommands" sheetId="3" r:id="rId1"/>
@@ -1081,9 +1081,6 @@
     <t>Do not stack the environment.</t>
   </si>
   <si>
-    <t>--no-stck</t>
-  </si>
-  <si>
     <t>Deactivate a conda environment.</t>
   </si>
   <si>
@@ -1091,13 +1088,16 @@
   </si>
   <si>
     <t>conda.deactivate</t>
+  </si>
+  <si>
+    <t>--no-stack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,12 +1231,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1580,11 +1574,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1960,24 +1952,24 @@
   <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-    <col min="8" max="8" width="15.73046875" customWidth="1"/>
-    <col min="9" max="9" width="71.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="71.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -1993,7 +1985,7 @@
       <c r="E1" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>309</v>
       </c>
       <c r="G1" t="s">
@@ -2006,7 +1998,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -2019,14 +2011,14 @@
       <c r="D2" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="3" t="b">
+      <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -2046,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2066,7 +2058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -2086,7 +2078,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -2106,7 +2098,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -2117,16 +2109,16 @@
         <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2146,7 +2138,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -2166,7 +2158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -2186,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -2206,7 +2198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -2226,7 +2218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2246,7 +2238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -2266,7 +2258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -2289,7 +2281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -2309,7 +2301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -2329,7 +2321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -2352,7 +2344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>134</v>
       </c>
@@ -2377,7 +2369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2402,7 +2394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -2427,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -2450,7 +2442,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -2461,7 +2453,7 @@
         <v>281</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" t="b">
@@ -2473,7 +2465,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>334</v>
       </c>
@@ -2498,7 +2490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +2515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2548,7 +2540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2573,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2623,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2648,7 +2640,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2669,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2704,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2727,7 +2719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2754,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2781,7 +2773,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2808,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2831,7 +2823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2858,7 +2850,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2908,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2937,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2966,7 +2958,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2993,7 +2985,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3016,7 +3008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3043,7 +3035,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3070,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3093,7 +3085,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3116,7 +3108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3142,7 +3134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3168,7 +3160,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3191,7 +3183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3240,7 +3232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -3289,7 +3281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -3315,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -3341,7 +3333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3360,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3394,7 +3386,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -3420,7 +3412,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -3446,7 +3438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -3469,7 +3461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -3492,7 +3484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3519,7 +3511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3545,7 +3537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -3571,7 +3563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -3594,7 +3586,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -3623,7 +3615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -3652,7 +3644,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -3681,7 +3673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -3704,7 +3696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -3727,7 +3719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -3753,7 +3745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3776,7 +3768,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -3799,7 +3791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -3822,7 +3814,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -3845,7 +3837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3868,7 +3860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -3891,7 +3883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -3917,7 +3909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -3940,7 +3932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3963,7 +3955,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -3990,7 +3982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -4017,7 +4009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -4040,7 +4032,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -4067,7 +4059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -4090,7 +4082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -4117,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4136,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -4171,7 +4163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -4194,7 +4186,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -4217,12 +4209,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
         <v>342</v>
-      </c>
-      <c r="B93" t="s">
-        <v>343</v>
       </c>
       <c r="C93" t="s">
         <v>280</v>
@@ -4241,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -4268,7 +4260,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>53</v>
       </c>
@@ -4295,7 +4287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -4318,7 +4310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>53</v>
       </c>
@@ -4345,7 +4337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -4368,11 +4360,11 @@
       <c r="H98" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -4395,7 +4387,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>53</v>
       </c>
@@ -4418,7 +4410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +4436,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -4471,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -4494,7 +4486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -4521,7 +4513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -4544,7 +4536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -4567,7 +4559,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -4594,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -4617,7 +4609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -4640,7 +4632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -4666,7 +4658,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -4716,7 +4708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -4743,7 +4735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -4769,7 +4761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -4795,7 +4787,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -4818,7 +4810,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -4847,7 +4839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -4876,7 +4868,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -4905,7 +4897,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -4928,7 +4920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -4951,7 +4943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>55</v>
       </c>
@@ -4977,7 +4969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>55</v>
       </c>
@@ -5000,7 +4992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>55</v>
       </c>
@@ -5023,7 +5015,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -5046,7 +5038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>55</v>
       </c>
@@ -5069,7 +5061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -5092,7 +5084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>55</v>
       </c>
@@ -5118,7 +5110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>55</v>
       </c>
@@ -5141,7 +5133,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>55</v>
       </c>
@@ -5165,7 +5157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>55</v>
       </c>
@@ -5175,7 +5167,7 @@
       <c r="C131" t="s">
         <v>281</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E131" s="1"/>
@@ -5190,7 +5182,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>55</v>
       </c>
@@ -5213,7 +5205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>55</v>
       </c>
@@ -5240,7 +5232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>55</v>
       </c>
@@ -5264,7 +5256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>55</v>
       </c>
@@ -5289,7 +5281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>55</v>
       </c>
@@ -5312,7 +5304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>55</v>
       </c>
@@ -5335,7 +5327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>55</v>
       </c>
@@ -5358,7 +5350,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>55</v>
       </c>
@@ -5385,7 +5377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>55</v>
       </c>
@@ -5408,7 +5400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>55</v>
       </c>
@@ -5435,7 +5427,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>55</v>
       </c>
@@ -5462,7 +5454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>55</v>
       </c>
@@ -5485,7 +5477,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>55</v>
       </c>
@@ -5512,7 +5504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>55</v>
       </c>
@@ -5535,7 +5527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -5562,7 +5554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>55</v>
       </c>
@@ -5589,7 +5581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -5616,7 +5608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>55</v>
       </c>
@@ -5639,7 +5631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>55</v>
       </c>
@@ -5662,7 +5654,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -5685,7 +5677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>56</v>
       </c>
@@ -5712,7 +5704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>56</v>
       </c>
@@ -5735,7 +5727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>56</v>
       </c>
@@ -5762,7 +5754,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>56</v>
       </c>
@@ -5789,7 +5781,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -5812,7 +5804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -5835,7 +5827,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -5862,7 +5854,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>56</v>
       </c>
@@ -5889,7 +5881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -5912,7 +5904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>56</v>
       </c>
@@ -5941,7 +5933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>56</v>
       </c>
@@ -5970,7 +5962,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>56</v>
       </c>
@@ -5993,7 +5985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>56</v>
       </c>
@@ -6019,7 +6011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>56</v>
       </c>
@@ -6046,7 +6038,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>57</v>
       </c>
@@ -6073,7 +6065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -6102,7 +6094,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>57</v>
       </c>
@@ -6129,7 +6121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>57</v>
       </c>
@@ -6156,7 +6148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>57</v>
       </c>
@@ -6182,7 +6174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>57</v>
       </c>
@@ -6208,7 +6200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>57</v>
       </c>
@@ -6234,7 +6226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>57</v>
       </c>
@@ -6263,7 +6255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -6292,7 +6284,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>58</v>
       </c>
@@ -6315,7 +6307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>58</v>
       </c>
@@ -6342,7 +6334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>58</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>58</v>
       </c>
@@ -6394,7 +6386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -6423,7 +6415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -6452,7 +6444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -6475,7 +6467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -6498,7 +6490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>58</v>
       </c>
@@ -6524,7 +6516,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>58</v>
       </c>
@@ -6547,7 +6539,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>58</v>
       </c>
@@ -6570,7 +6562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>58</v>
       </c>
@@ -6594,7 +6586,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>58</v>
       </c>
@@ -6619,7 +6611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -6642,7 +6634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -6668,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -6694,7 +6686,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -6720,7 +6712,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -6743,7 +6735,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -6769,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -6792,7 +6784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -6818,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>58</v>
       </c>
@@ -6844,7 +6836,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>58</v>
       </c>
@@ -6871,7 +6863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>60</v>
       </c>
@@ -6894,7 +6886,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>60</v>
       </c>
@@ -6921,7 +6913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>60</v>
       </c>
@@ -6947,7 +6939,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>60</v>
       </c>
@@ -6970,7 +6962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>60</v>
       </c>
@@ -6993,7 +6985,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>60</v>
       </c>
@@ -7019,7 +7011,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>60</v>
       </c>
@@ -7042,7 +7034,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>60</v>
       </c>
@@ -7065,7 +7057,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>60</v>
       </c>
@@ -7094,7 +7086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -7123,7 +7115,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>61</v>
       </c>
@@ -7150,7 +7142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>61</v>
       </c>
@@ -7173,7 +7165,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -7200,7 +7192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -7226,7 +7218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -7252,7 +7244,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>61</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>61</v>
       </c>
@@ -7304,7 +7296,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>61</v>
       </c>
@@ -7327,7 +7319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>61</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>61</v>
       </c>
@@ -7379,7 +7371,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>61</v>
       </c>
@@ -7405,7 +7397,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>61</v>
       </c>
@@ -7428,7 +7420,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>61</v>
       </c>
@@ -7451,7 +7443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>61</v>
       </c>
@@ -7477,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>61</v>
       </c>
@@ -7503,7 +7495,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>62</v>
       </c>
@@ -7526,7 +7518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>62</v>
       </c>
@@ -7553,7 +7545,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>62</v>
       </c>
@@ -7579,7 +7571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>62</v>
       </c>
@@ -7608,7 +7600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>62</v>
       </c>
@@ -7637,7 +7629,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>62</v>
       </c>
@@ -7666,7 +7658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>62</v>
       </c>
@@ -7689,7 +7681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -7712,7 +7704,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>62</v>
       </c>
@@ -7738,7 +7730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>62</v>
       </c>
@@ -7761,7 +7753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>62</v>
       </c>
@@ -7784,7 +7776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>62</v>
       </c>
@@ -7807,7 +7799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>62</v>
       </c>
@@ -7830,7 +7822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>62</v>
       </c>
@@ -7853,7 +7845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>62</v>
       </c>
@@ -7879,7 +7871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>62</v>
       </c>
@@ -7902,7 +7894,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>62</v>
       </c>
@@ -7925,7 +7917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -7948,7 +7940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>62</v>
       </c>
@@ -7971,7 +7963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>62</v>
       </c>
@@ -7997,7 +7989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>62</v>
       </c>
@@ -8020,7 +8012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>62</v>
       </c>
@@ -8043,7 +8035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>62</v>
       </c>
@@ -8066,7 +8058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>62</v>
       </c>
@@ -8089,7 +8081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>62</v>
       </c>
@@ -8112,7 +8104,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>62</v>
       </c>
@@ -8135,7 +8127,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>62</v>
       </c>
@@ -8161,7 +8153,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>62</v>
       </c>
@@ -8187,7 +8179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>62</v>
       </c>
@@ -8210,7 +8202,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>62</v>
       </c>
@@ -8236,7 +8228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>62</v>
       </c>
@@ -8259,7 +8251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>62</v>
       </c>
@@ -8286,7 +8278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>62</v>
       </c>
@@ -8312,7 +8304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>62</v>
       </c>
@@ -8338,7 +8330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>62</v>
       </c>
@@ -8361,7 +8353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -8384,7 +8376,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>99</v>
       </c>
@@ -8407,7 +8399,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>99</v>
       </c>
@@ -8430,7 +8422,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>99</v>
       </c>
@@ -8453,7 +8445,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>99</v>
       </c>
@@ -8476,7 +8468,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>99</v>
       </c>
@@ -8499,7 +8491,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>99</v>
       </c>
@@ -8522,7 +8514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -8548,7 +8540,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -8571,7 +8563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -8597,7 +8589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -8626,7 +8618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -8649,7 +8641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -8675,7 +8667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -8698,7 +8690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -8724,7 +8716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -8753,7 +8745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -8782,7 +8774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -8808,7 +8800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>51</v>
       </c>
@@ -8834,7 +8826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>51</v>
       </c>
@@ -8857,7 +8849,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -8880,7 +8872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>51</v>
       </c>
@@ -8906,7 +8898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -8932,7 +8924,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>251</v>
       </c>
@@ -8958,7 +8950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>251</v>
       </c>
@@ -8987,7 +8979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>251</v>
       </c>
@@ -9010,7 +9002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>251</v>
       </c>
@@ -9039,7 +9031,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>251</v>
       </c>
@@ -9062,7 +9054,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -9085,7 +9077,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>251</v>
       </c>
@@ -9108,7 +9100,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>251</v>
       </c>
@@ -9137,7 +9129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>251</v>
       </c>
@@ -9166,7 +9158,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>251</v>
       </c>
@@ -9189,7 +9181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>251</v>
       </c>
@@ -9215,7 +9207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>251</v>
       </c>
@@ -9241,7 +9233,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>56</v>
       </c>
@@ -9267,7 +9259,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>56</v>
       </c>
@@ -9290,7 +9282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>56</v>
       </c>
@@ -9316,7 +9308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -9342,7 +9334,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>58</v>
       </c>
@@ -9368,7 +9360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>58</v>
       </c>
@@ -9394,7 +9386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -9423,7 +9415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>58</v>
       </c>
@@ -9452,7 +9444,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>58</v>
       </c>
@@ -9478,7 +9470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -9501,7 +9493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>58</v>
       </c>
@@ -9527,7 +9519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>58</v>
       </c>
@@ -9553,7 +9545,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>58</v>
       </c>
@@ -9579,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>62</v>
       </c>
@@ -9602,7 +9594,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>62</v>
       </c>
@@ -9628,7 +9620,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>62</v>
       </c>
@@ -9657,7 +9649,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>62</v>
       </c>
@@ -9680,7 +9672,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>62</v>
       </c>
@@ -9706,7 +9698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>62</v>
       </c>
@@ -9735,7 +9727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>62</v>
       </c>
@@ -9764,7 +9756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>62</v>
       </c>
@@ -9787,7 +9779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>62</v>
       </c>
@@ -9813,7 +9805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>62</v>
       </c>
@@ -9839,7 +9831,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>50</v>
       </c>
@@ -9862,7 +9854,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>50</v>
       </c>
@@ -9888,7 +9880,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>270</v>
       </c>
@@ -9911,7 +9903,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>270</v>
       </c>
@@ -9934,7 +9926,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>270</v>
       </c>
@@ -9957,7 +9949,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>270</v>
       </c>
@@ -9983,7 +9975,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>56</v>
       </c>
@@ -10009,7 +10001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>56</v>
       </c>
@@ -10038,7 +10030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>56</v>
       </c>
@@ -10067,7 +10059,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>56</v>
       </c>
@@ -10090,7 +10082,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>56</v>
       </c>
@@ -10116,7 +10108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>56</v>
       </c>
@@ -10142,7 +10134,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>261</v>
       </c>
@@ -10165,7 +10157,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>261</v>
       </c>
@@ -10191,7 +10183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>261</v>
       </c>
@@ -10220,7 +10212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>261</v>
       </c>
@@ -10249,7 +10241,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>262</v>
       </c>
@@ -10272,7 +10264,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>262</v>
       </c>
@@ -10298,7 +10290,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>262</v>
       </c>
@@ -10327,7 +10319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>262</v>
       </c>

--- a/SyntaxTreeTools/CondaCompletionsSpec 2022-08-13.xlsx
+++ b/SyntaxTreeTools/CondaCompletionsSpec 2022-08-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\csharp\POSH-Resolve-Argument\SyntaxTreeTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656F081-429F-40C0-BA36-DAB906E63D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A0568-AD8D-4A42-8462-E539F6581302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="343">
   <si>
     <t>Remove unused packages and caches.</t>
   </si>
@@ -584,9 +584,6 @@
   </si>
   <si>
     <t>--file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FILE</t>
   </si>
   <si>
     <t>SHOW</t>
@@ -1952,8 +1949,8 @@
   <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,31 +1968,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
         <v>278</v>
       </c>
-      <c r="D1" t="s">
-        <v>279</v>
-      </c>
       <c r="E1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" t="s">
         <v>309</v>
       </c>
-      <c r="G1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" t="s">
-        <v>310</v>
-      </c>
       <c r="I1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2006,16 +2003,16 @@
         <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,7 +2023,7 @@
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -2046,7 +2043,7 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -2066,7 +2063,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -2075,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2086,7 +2083,7 @@
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -2106,16 +2103,16 @@
         <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2126,7 +2123,7 @@
         <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -2135,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2146,7 +2143,7 @@
         <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -2166,7 +2163,7 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -2186,7 +2183,7 @@
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -2195,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,7 +2203,7 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
@@ -2226,7 +2223,7 @@
         <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
@@ -2246,7 +2243,7 @@
         <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2255,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,7 +2263,7 @@
         <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -2289,7 +2286,7 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -2309,7 +2306,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2329,13 +2326,13 @@
         <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2352,10 +2349,10 @@
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>149</v>
@@ -2377,10 +2374,10 @@
         <v>134</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>147</v>
@@ -2396,13 +2393,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2421,16 +2418,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" t="b">
@@ -2439,21 +2436,21 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" t="b">
@@ -2462,21 +2459,21 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>149</v>
@@ -2495,13 +2492,13 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>149</v>
@@ -2520,10 +2517,10 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>85</v>
@@ -2545,13 +2542,13 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>151</v>
@@ -2570,13 +2567,13 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>152</v>
@@ -2595,13 +2592,13 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>153</v>
@@ -2620,13 +2617,13 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>154</v>
@@ -2637,7 +2634,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,13 +2642,13 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>145</v>
@@ -2666,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,13 +2671,13 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>155</v>
@@ -2701,10 +2698,10 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>63</v>
@@ -2724,13 +2721,13 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>156</v>
@@ -2751,13 +2748,13 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>157</v>
@@ -2770,7 +2767,7 @@
         <v>148</v>
       </c>
       <c r="I35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2778,13 +2775,13 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>158</v>
@@ -2805,10 +2802,10 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2828,13 +2825,13 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>149</v>
@@ -2855,10 +2852,10 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>63</v>
@@ -2878,13 +2875,13 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>156</v>
@@ -2905,13 +2902,13 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>169</v>
@@ -2934,13 +2931,13 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>152</v>
@@ -2955,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,13 +2960,13 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>149</v>
@@ -2990,10 +2987,10 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>63</v>
@@ -3013,13 +3010,13 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>157</v>
@@ -3032,7 +3029,7 @@
         <v>148</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,13 +3037,13 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>156</v>
@@ -3067,10 +3064,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>64</v>
@@ -3082,7 +3079,7 @@
         <v>148</v>
       </c>
       <c r="I47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,10 +3087,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>65</v>
@@ -3105,7 +3102,7 @@
         <v>148</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,10 +3110,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>174</v>
@@ -3125,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -3139,25 +3136,25 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,10 +3162,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>66</v>
@@ -3188,10 +3185,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>67</v>
@@ -3211,19 +3208,19 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
@@ -3237,10 +3234,10 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>68</v>
@@ -3260,19 +3257,19 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -3286,19 +3283,19 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -3312,19 +3309,19 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -3338,20 +3335,20 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -3365,25 +3362,25 @@
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,19 +3388,19 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -3417,19 +3414,19 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -3443,10 +3440,10 @@
         <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>69</v>
@@ -3466,16 +3463,16 @@
         <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -3489,13 +3486,13 @@
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>149</v>
@@ -3516,19 +3513,19 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -3542,10 +3539,10 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>174</v>
@@ -3568,10 +3565,10 @@
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>70</v>
@@ -3591,13 +3588,13 @@
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>169</v>
@@ -3620,13 +3617,13 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>152</v>
@@ -3641,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,13 +3646,13 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>145</v>
@@ -3664,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>1</v>
@@ -3678,10 +3675,10 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>71</v>
@@ -3701,10 +3698,10 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>72</v>
@@ -3724,19 +3721,19 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3750,10 +3747,10 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>73</v>
@@ -3773,10 +3770,10 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>74</v>
@@ -3796,10 +3793,10 @@
         <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>75</v>
@@ -3819,10 +3816,10 @@
         <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>76</v>
@@ -3842,10 +3839,10 @@
         <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>77</v>
@@ -3865,10 +3862,10 @@
         <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>78</v>
@@ -3888,19 +3885,19 @@
         <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -3914,10 +3911,10 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>79</v>
@@ -3937,10 +3934,10 @@
         <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>80</v>
@@ -3952,7 +3949,7 @@
         <v>148</v>
       </c>
       <c r="I82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3960,13 +3957,13 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>144</v>
@@ -3987,13 +3984,13 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>159</v>
@@ -4014,10 +4011,10 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>81</v>
@@ -4029,7 +4026,7 @@
         <v>148</v>
       </c>
       <c r="I85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,13 +4034,13 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>155</v>
@@ -4064,10 +4061,10 @@
         <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>63</v>
@@ -4087,13 +4084,13 @@
         <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>156</v>
@@ -4114,13 +4111,13 @@
         <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>157</v>
@@ -4133,7 +4130,7 @@
         <v>148</v>
       </c>
       <c r="I89" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4141,13 +4138,13 @@
         <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>158</v>
@@ -4168,10 +4165,10 @@
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>82</v>
@@ -4191,10 +4188,10 @@
         <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>83</v>
@@ -4211,13 +4208,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>340</v>
+      </c>
+      <c r="B93" t="s">
         <v>341</v>
       </c>
-      <c r="B93" t="s">
-        <v>342</v>
-      </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D93" s="1"/>
       <c r="F93" t="b">
@@ -4238,13 +4235,13 @@
         <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>149</v>
@@ -4265,10 +4262,10 @@
         <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>85</v>
@@ -4292,10 +4289,10 @@
         <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>84</v>
@@ -4315,10 +4312,10 @@
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>98</v>
@@ -4342,10 +4339,10 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>64</v>
@@ -4361,7 +4358,7 @@
         <v>148</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,10 +4366,10 @@
         <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>142</v>
@@ -4392,10 +4389,10 @@
         <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>63</v>
@@ -4415,13 +4412,13 @@
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E101" t="s">
         <v>157</v>
@@ -4433,7 +4430,7 @@
         <v>148</v>
       </c>
       <c r="I101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4441,13 +4438,13 @@
         <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>156</v>
@@ -4468,16 +4465,16 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -4491,13 +4488,13 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>149</v>
@@ -4518,10 +4515,10 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>85</v>
@@ -4541,10 +4538,10 @@
         <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>121</v>
@@ -4556,7 +4553,7 @@
         <v>148</v>
       </c>
       <c r="I106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4564,13 +4561,13 @@
         <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>155</v>
@@ -4591,10 +4588,10 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>86</v>
@@ -4614,10 +4611,10 @@
         <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D109" t="s">
         <v>63</v>
@@ -4637,13 +4634,13 @@
         <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E110" t="s">
         <v>157</v>
@@ -4655,7 +4652,7 @@
         <v>148</v>
       </c>
       <c r="I110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4663,13 +4660,13 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>156</v>
@@ -4690,16 +4687,16 @@
         <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C112" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -4713,13 +4710,13 @@
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>149</v>
@@ -4740,19 +4737,19 @@
         <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -4766,10 +4763,10 @@
         <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>174</v>
@@ -4792,10 +4789,10 @@
         <v>55</v>
       </c>
       <c r="B116" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>70</v>
@@ -4815,13 +4812,13 @@
         <v>55</v>
       </c>
       <c r="B117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>169</v>
@@ -4844,13 +4841,13 @@
         <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>152</v>
@@ -4865,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4873,13 +4870,13 @@
         <v>55</v>
       </c>
       <c r="B119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C119" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>145</v>
@@ -4888,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H119" s="1" t="b">
         <v>1</v>
@@ -4902,10 +4899,10 @@
         <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>71</v>
@@ -4925,10 +4922,10 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>72</v>
@@ -4948,19 +4945,19 @@
         <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4974,10 +4971,10 @@
         <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>73</v>
@@ -4997,10 +4994,10 @@
         <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>74</v>
@@ -5020,10 +5017,10 @@
         <v>55</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>75</v>
@@ -5043,10 +5040,10 @@
         <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>76</v>
@@ -5066,10 +5063,10 @@
         <v>55</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>77</v>
@@ -5089,19 +5086,19 @@
         <v>55</v>
       </c>
       <c r="B128" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -5115,10 +5112,10 @@
         <v>55</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>87</v>
@@ -5138,13 +5135,13 @@
         <v>55</v>
       </c>
       <c r="B130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -5162,10 +5159,10 @@
         <v>55</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>162</v>
@@ -5187,10 +5184,10 @@
         <v>55</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>88</v>
@@ -5210,13 +5207,13 @@
         <v>55</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>163</v>
@@ -5237,10 +5234,10 @@
         <v>55</v>
       </c>
       <c r="B134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>85</v>
@@ -5261,10 +5258,10 @@
         <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>164</v>
@@ -5286,10 +5283,10 @@
         <v>55</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>89</v>
@@ -5309,10 +5306,10 @@
         <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>79</v>
@@ -5332,10 +5329,10 @@
         <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>80</v>
@@ -5347,7 +5344,7 @@
         <v>148</v>
       </c>
       <c r="I138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5355,13 +5352,13 @@
         <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>165</v>
@@ -5382,10 +5379,10 @@
         <v>55</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>90</v>
@@ -5397,7 +5394,7 @@
         <v>148</v>
       </c>
       <c r="I140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5405,13 +5402,13 @@
         <v>55</v>
       </c>
       <c r="B141" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>144</v>
@@ -5432,13 +5429,13 @@
         <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>159</v>
@@ -5459,10 +5456,10 @@
         <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>81</v>
@@ -5474,7 +5471,7 @@
         <v>148</v>
       </c>
       <c r="I143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,13 +5479,13 @@
         <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>155</v>
@@ -5509,10 +5506,10 @@
         <v>55</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>63</v>
@@ -5532,13 +5529,13 @@
         <v>55</v>
       </c>
       <c r="B146" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>156</v>
@@ -5559,13 +5556,13 @@
         <v>55</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>157</v>
@@ -5578,7 +5575,7 @@
         <v>148</v>
       </c>
       <c r="I147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,13 +5583,13 @@
         <v>55</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C148" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>158</v>
@@ -5613,10 +5610,10 @@
         <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>82</v>
@@ -5636,10 +5633,10 @@
         <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>83</v>
@@ -5659,16 +5656,16 @@
         <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -5682,13 +5679,13 @@
         <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>149</v>
@@ -5709,10 +5706,10 @@
         <v>56</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>83</v>
@@ -5732,13 +5729,13 @@
         <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>145</v>
@@ -5751,7 +5748,7 @@
         <v>148</v>
       </c>
       <c r="I154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,13 +5756,13 @@
         <v>56</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>154</v>
@@ -5778,7 +5775,7 @@
         <v>148</v>
       </c>
       <c r="I155" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5786,10 +5783,10 @@
         <v>56</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C156" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>91</v>
@@ -5801,7 +5798,7 @@
         <v>148</v>
       </c>
       <c r="I156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5809,10 +5806,10 @@
         <v>56</v>
       </c>
       <c r="B157" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>92</v>
@@ -5824,7 +5821,7 @@
         <v>148</v>
       </c>
       <c r="I157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5832,13 +5829,13 @@
         <v>56</v>
       </c>
       <c r="B158" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>160</v>
@@ -5859,13 +5856,13 @@
         <v>56</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>146</v>
@@ -5886,10 +5883,10 @@
         <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>93</v>
@@ -5909,13 +5906,13 @@
         <v>56</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>169</v>
@@ -5938,13 +5935,13 @@
         <v>56</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C162" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>152</v>
@@ -5959,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -5967,10 +5964,10 @@
         <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C163" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>63</v>
@@ -5990,13 +5987,13 @@
         <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C164" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D164" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E164" t="s">
         <v>156</v>
@@ -6016,13 +6013,13 @@
         <v>56</v>
       </c>
       <c r="B165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>157</v>
@@ -6035,7 +6032,7 @@
         <v>148</v>
       </c>
       <c r="I165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6043,13 +6040,13 @@
         <v>57</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C166" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>149</v>
@@ -6070,13 +6067,13 @@
         <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C167" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>168</v>
@@ -6099,13 +6096,13 @@
         <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>146</v>
@@ -6126,13 +6123,13 @@
         <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C169" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>166</v>
@@ -6153,19 +6150,19 @@
         <v>57</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -6179,19 +6176,19 @@
         <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C171" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -6205,19 +6202,19 @@
         <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C172" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -6231,13 +6228,13 @@
         <v>57</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>169</v>
@@ -6260,13 +6257,13 @@
         <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>152</v>
@@ -6281,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6289,16 +6286,16 @@
         <v>58</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
@@ -6312,13 +6309,13 @@
         <v>58</v>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C176" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>149</v>
@@ -6339,10 +6336,10 @@
         <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>70</v>
@@ -6362,13 +6359,13 @@
         <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C178" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>169</v>
@@ -6391,13 +6388,13 @@
         <v>58</v>
       </c>
       <c r="B179" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C179" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>152</v>
@@ -6412,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6420,13 +6417,13 @@
         <v>58</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C180" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>145</v>
@@ -6435,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -6449,10 +6446,10 @@
         <v>58</v>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C181" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>71</v>
@@ -6472,10 +6469,10 @@
         <v>58</v>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C182" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>72</v>
@@ -6495,19 +6492,19 @@
         <v>58</v>
       </c>
       <c r="B183" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -6521,10 +6518,10 @@
         <v>58</v>
       </c>
       <c r="B184" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>85</v>
@@ -6536,7 +6533,7 @@
         <v>148</v>
       </c>
       <c r="I184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6544,10 +6541,10 @@
         <v>58</v>
       </c>
       <c r="B185" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C185" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>94</v>
@@ -6567,13 +6564,13 @@
         <v>58</v>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C186" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -6591,10 +6588,10 @@
         <v>58</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>167</v>
@@ -6616,10 +6613,10 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>77</v>
@@ -6639,19 +6636,19 @@
         <v>58</v>
       </c>
       <c r="B189" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C189" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -6665,13 +6662,13 @@
         <v>58</v>
       </c>
       <c r="B190" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>144</v>
@@ -6691,13 +6688,13 @@
         <v>58</v>
       </c>
       <c r="B191" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C191" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>159</v>
@@ -6717,10 +6714,10 @@
         <v>58</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>81</v>
@@ -6732,7 +6729,7 @@
         <v>148</v>
       </c>
       <c r="I192" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -6740,13 +6737,13 @@
         <v>58</v>
       </c>
       <c r="B193" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C193" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>155</v>
@@ -6766,10 +6763,10 @@
         <v>58</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>63</v>
@@ -6789,13 +6786,13 @@
         <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C195" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D195" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E195" t="s">
         <v>156</v>
@@ -6815,13 +6812,13 @@
         <v>58</v>
       </c>
       <c r="B196" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C196" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>157</v>
@@ -6833,7 +6830,7 @@
         <v>148</v>
       </c>
       <c r="I196" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -6841,13 +6838,13 @@
         <v>58</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>158</v>
@@ -6868,16 +6865,16 @@
         <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -6891,13 +6888,13 @@
         <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>149</v>
@@ -6918,13 +6915,13 @@
         <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>157</v>
@@ -6936,7 +6933,7 @@
         <v>148</v>
       </c>
       <c r="I200" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -6944,10 +6941,10 @@
         <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C201" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>70</v>
@@ -6967,10 +6964,10 @@
         <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>95</v>
@@ -6990,25 +6987,25 @@
         <v>60</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C203" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7016,10 +7013,10 @@
         <v>60</v>
       </c>
       <c r="B204" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C204" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>96</v>
@@ -7031,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="I204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -7039,10 +7036,10 @@
         <v>60</v>
       </c>
       <c r="B205" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C205" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>97</v>
@@ -7062,13 +7059,13 @@
         <v>60</v>
       </c>
       <c r="B206" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>169</v>
@@ -7091,13 +7088,13 @@
         <v>60</v>
       </c>
       <c r="B207" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C207" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>152</v>
@@ -7112,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7120,13 +7117,13 @@
         <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C208" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>149</v>
@@ -7147,10 +7144,10 @@
         <v>61</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>98</v>
@@ -7170,13 +7167,13 @@
         <v>61</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>151</v>
@@ -7197,19 +7194,19 @@
         <v>61</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C211" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
@@ -7223,19 +7220,19 @@
         <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -7249,13 +7246,13 @@
         <v>61</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>145</v>
@@ -7264,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -7278,10 +7275,10 @@
         <v>61</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>71</v>
@@ -7301,10 +7298,10 @@
         <v>61</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>72</v>
@@ -7324,19 +7321,19 @@
         <v>61</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C216" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -7350,13 +7347,13 @@
         <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C217" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>144</v>
@@ -7376,13 +7373,13 @@
         <v>61</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C218" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>159</v>
@@ -7402,10 +7399,10 @@
         <v>61</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C219" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>81</v>
@@ -7417,7 +7414,7 @@
         <v>148</v>
       </c>
       <c r="I219" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7425,10 +7422,10 @@
         <v>61</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C220" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>63</v>
@@ -7448,13 +7445,13 @@
         <v>61</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C221" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E221" t="s">
         <v>156</v>
@@ -7474,13 +7471,13 @@
         <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C222" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>157</v>
@@ -7492,7 +7489,7 @@
         <v>148</v>
       </c>
       <c r="I222" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -7500,16 +7497,16 @@
         <v>62</v>
       </c>
       <c r="B223" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C223" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -7523,13 +7520,13 @@
         <v>62</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C224" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>149</v>
@@ -7550,10 +7547,10 @@
         <v>62</v>
       </c>
       <c r="B225" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C225" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>174</v>
@@ -7576,13 +7573,13 @@
         <v>62</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>169</v>
@@ -7605,13 +7602,13 @@
         <v>62</v>
       </c>
       <c r="B227" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C227" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>152</v>
@@ -7626,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -7634,13 +7631,13 @@
         <v>62</v>
       </c>
       <c r="B228" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C228" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>145</v>
@@ -7649,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -7663,10 +7660,10 @@
         <v>62</v>
       </c>
       <c r="B229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D229" t="s">
         <v>71</v>
@@ -7686,10 +7683,10 @@
         <v>62</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C230" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D230" t="s">
         <v>72</v>
@@ -7709,19 +7706,19 @@
         <v>62</v>
       </c>
       <c r="B231" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C231" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H231" t="b">
         <v>0</v>
@@ -7735,10 +7732,10 @@
         <v>62</v>
       </c>
       <c r="B232" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C232" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>73</v>
@@ -7758,10 +7755,10 @@
         <v>62</v>
       </c>
       <c r="B233" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C233" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D233" t="s">
         <v>74</v>
@@ -7781,10 +7778,10 @@
         <v>62</v>
       </c>
       <c r="B234" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C234" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D234" t="s">
         <v>75</v>
@@ -7804,10 +7801,10 @@
         <v>62</v>
       </c>
       <c r="B235" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D235" t="s">
         <v>76</v>
@@ -7827,10 +7824,10 @@
         <v>62</v>
       </c>
       <c r="B236" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C236" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>77</v>
@@ -7850,19 +7847,19 @@
         <v>62</v>
       </c>
       <c r="B237" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
@@ -7876,10 +7873,10 @@
         <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C238" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D238" t="s">
         <v>87</v>
@@ -7899,13 +7896,13 @@
         <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D239" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F239" t="b">
         <v>0</v>
@@ -7922,10 +7919,10 @@
         <v>62</v>
       </c>
       <c r="B240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D240" t="s">
         <v>162</v>
@@ -7945,10 +7942,10 @@
         <v>62</v>
       </c>
       <c r="B241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>88</v>
@@ -7968,13 +7965,13 @@
         <v>62</v>
       </c>
       <c r="B242" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C242" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D242" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E242" t="s">
         <v>163</v>
@@ -7994,10 +7991,10 @@
         <v>62</v>
       </c>
       <c r="B243" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C243" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D243" t="s">
         <v>85</v>
@@ -8017,10 +8014,10 @@
         <v>62</v>
       </c>
       <c r="B244" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C244" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D244" t="s">
         <v>164</v>
@@ -8040,10 +8037,10 @@
         <v>62</v>
       </c>
       <c r="B245" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C245" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>89</v>
@@ -8063,10 +8060,10 @@
         <v>62</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C246" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D246" t="s">
         <v>79</v>
@@ -8086,10 +8083,10 @@
         <v>62</v>
       </c>
       <c r="B247" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C247" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -8101,7 +8098,7 @@
         <v>148</v>
       </c>
       <c r="I247" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8109,10 +8106,10 @@
         <v>62</v>
       </c>
       <c r="B248" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C248" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D248" t="s">
         <v>90</v>
@@ -8124,7 +8121,7 @@
         <v>148</v>
       </c>
       <c r="I248" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8132,13 +8129,13 @@
         <v>62</v>
       </c>
       <c r="B249" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C249" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>144</v>
@@ -8158,13 +8155,13 @@
         <v>62</v>
       </c>
       <c r="B250" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C250" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>159</v>
@@ -8184,10 +8181,10 @@
         <v>62</v>
       </c>
       <c r="B251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C251" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D251" t="s">
         <v>81</v>
@@ -8199,7 +8196,7 @@
         <v>148</v>
       </c>
       <c r="I251" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8207,13 +8204,13 @@
         <v>62</v>
       </c>
       <c r="B252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C252" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D252" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E252" t="s">
         <v>155</v>
@@ -8233,10 +8230,10 @@
         <v>62</v>
       </c>
       <c r="B253" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C253" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D253" t="s">
         <v>63</v>
@@ -8256,13 +8253,13 @@
         <v>62</v>
       </c>
       <c r="B254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>156</v>
@@ -8283,13 +8280,13 @@
         <v>62</v>
       </c>
       <c r="B255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C255" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D255" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E255" t="s">
         <v>157</v>
@@ -8301,7 +8298,7 @@
         <v>148</v>
       </c>
       <c r="I255" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -8309,13 +8306,13 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C256" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D256" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E256" t="s">
         <v>158</v>
@@ -8335,10 +8332,10 @@
         <v>62</v>
       </c>
       <c r="B257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C257" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>82</v>
@@ -8358,10 +8355,10 @@
         <v>62</v>
       </c>
       <c r="B258" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D258" t="s">
         <v>83</v>
@@ -8381,10 +8378,10 @@
         <v>99</v>
       </c>
       <c r="B259" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C259" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D259" t="s">
         <v>51</v>
@@ -8396,7 +8393,7 @@
         <v>148</v>
       </c>
       <c r="I259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -8404,13 +8401,13 @@
         <v>99</v>
       </c>
       <c r="B260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C260" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D260" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -8419,7 +8416,7 @@
         <v>148</v>
       </c>
       <c r="I260" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -8427,10 +8424,10 @@
         <v>99</v>
       </c>
       <c r="B261" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C261" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D261" t="s">
         <v>56</v>
@@ -8442,7 +8439,7 @@
         <v>148</v>
       </c>
       <c r="I261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -8450,10 +8447,10 @@
         <v>99</v>
       </c>
       <c r="B262" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C262" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D262" t="s">
         <v>58</v>
@@ -8465,7 +8462,7 @@
         <v>148</v>
       </c>
       <c r="I262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -8473,10 +8470,10 @@
         <v>99</v>
       </c>
       <c r="B263" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C263" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D263" t="s">
         <v>62</v>
@@ -8488,7 +8485,7 @@
         <v>148</v>
       </c>
       <c r="I263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -8496,10 +8493,10 @@
         <v>99</v>
       </c>
       <c r="B264" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C264" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D264" t="s">
         <v>50</v>
@@ -8511,7 +8508,7 @@
         <v>148</v>
       </c>
       <c r="I264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -8519,13 +8516,13 @@
         <v>51</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D265" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E265" t="s">
         <v>149</v>
@@ -8545,22 +8542,22 @@
         <v>51</v>
       </c>
       <c r="B266" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C266" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -8568,13 +8565,13 @@
         <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C267" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D267" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E267" t="s">
         <v>149</v>
@@ -8594,10 +8591,10 @@
         <v>51</v>
       </c>
       <c r="B268" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D268" t="s">
         <v>174</v>
@@ -8615,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -8623,13 +8620,13 @@
         <v>51</v>
       </c>
       <c r="B269" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C269" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -8638,7 +8635,7 @@
         <v>148</v>
       </c>
       <c r="I269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -8646,13 +8643,13 @@
         <v>51</v>
       </c>
       <c r="B270" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C270" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D270" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E270" t="s">
         <v>155</v>
@@ -8672,10 +8669,10 @@
         <v>51</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C271" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D271" t="s">
         <v>78</v>
@@ -8695,19 +8692,19 @@
         <v>51</v>
       </c>
       <c r="B272" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D272" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F272" t="b">
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -8721,13 +8718,13 @@
         <v>51</v>
       </c>
       <c r="B273" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C273" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>169</v>
@@ -8750,13 +8747,13 @@
         <v>51</v>
       </c>
       <c r="B274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C274" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D274" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E274" t="s">
         <v>152</v>
@@ -8771,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -8779,13 +8776,13 @@
         <v>51</v>
       </c>
       <c r="B275" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C275" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D275" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E275" t="s">
         <v>144</v>
@@ -8805,13 +8802,13 @@
         <v>51</v>
       </c>
       <c r="B276" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D276" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E276" t="s">
         <v>159</v>
@@ -8831,10 +8828,10 @@
         <v>51</v>
       </c>
       <c r="B277" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C277" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D277" t="s">
         <v>81</v>
@@ -8846,7 +8843,7 @@
         <v>148</v>
       </c>
       <c r="I277" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -8854,10 +8851,10 @@
         <v>51</v>
       </c>
       <c r="B278" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D278" t="s">
         <v>63</v>
@@ -8877,13 +8874,13 @@
         <v>51</v>
       </c>
       <c r="B279" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D279" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E279" t="s">
         <v>156</v>
@@ -8903,13 +8900,13 @@
         <v>51</v>
       </c>
       <c r="B280" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D280" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E280" t="s">
         <v>157</v>
@@ -8921,21 +8918,21 @@
         <v>148</v>
       </c>
       <c r="I280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B281" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D281" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E281" t="s">
         <v>149</v>
@@ -8952,16 +8949,16 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B282" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E282" t="s">
         <v>145</v>
@@ -8970,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -8981,13 +8978,13 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D283" t="s">
         <v>72</v>
@@ -9004,13 +9001,13 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B284" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D284" t="s">
         <v>174</v>
@@ -9028,21 +9025,21 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B285" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C285" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F285" t="b">
         <v>0</v>
@@ -9051,21 +9048,21 @@
         <v>148</v>
       </c>
       <c r="I285" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B286" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F286" t="b">
         <v>0</v>
@@ -9074,21 +9071,21 @@
         <v>148</v>
       </c>
       <c r="I286" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F287" t="b">
         <v>0</v>
@@ -9097,21 +9094,21 @@
         <v>148</v>
       </c>
       <c r="I287" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D288" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E288" t="s">
         <v>169</v>
@@ -9131,16 +9128,16 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B289" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C289" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D289" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E289" t="s">
         <v>152</v>
@@ -9155,18 +9152,18 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B290" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C290" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D290" t="s">
         <v>63</v>
@@ -9183,16 +9180,16 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B291" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C291" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D291" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E291" t="s">
         <v>156</v>
@@ -9209,16 +9206,16 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C292" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D292" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E292" t="s">
         <v>157</v>
@@ -9230,7 +9227,7 @@
         <v>148</v>
       </c>
       <c r="I292" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -9238,13 +9235,13 @@
         <v>56</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C293" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D293" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E293" t="s">
         <v>149</v>
@@ -9264,10 +9261,10 @@
         <v>56</v>
       </c>
       <c r="B294" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C294" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D294" t="s">
         <v>63</v>
@@ -9287,13 +9284,13 @@
         <v>56</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C295" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D295" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E295" t="s">
         <v>156</v>
@@ -9313,13 +9310,13 @@
         <v>56</v>
       </c>
       <c r="B296" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D296" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E296" t="s">
         <v>157</v>
@@ -9331,7 +9328,7 @@
         <v>148</v>
       </c>
       <c r="I296" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -9339,13 +9336,13 @@
         <v>58</v>
       </c>
       <c r="B297" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D297" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E297" t="s">
         <v>149</v>
@@ -9365,19 +9362,19 @@
         <v>58</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C298" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D298" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F298" t="b">
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -9391,13 +9388,13 @@
         <v>58</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D299" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E299" t="s">
         <v>169</v>
@@ -9420,13 +9417,13 @@
         <v>58</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D300" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E300" t="s">
         <v>152</v>
@@ -9441,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -9449,13 +9446,13 @@
         <v>58</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D301" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E301" t="s">
         <v>155</v>
@@ -9475,10 +9472,10 @@
         <v>58</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D302" t="s">
         <v>63</v>
@@ -9498,13 +9495,13 @@
         <v>58</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D303" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E303" t="s">
         <v>156</v>
@@ -9524,13 +9521,13 @@
         <v>58</v>
       </c>
       <c r="B304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C304" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D304" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E304" t="s">
         <v>157</v>
@@ -9542,7 +9539,7 @@
         <v>148</v>
       </c>
       <c r="I304" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -9550,13 +9547,13 @@
         <v>58</v>
       </c>
       <c r="B305" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C305" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D305" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E305" t="s">
         <v>158</v>
@@ -9576,22 +9573,22 @@
         <v>62</v>
       </c>
       <c r="B306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F306" t="b">
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H306" t="b">
         <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -9599,13 +9596,13 @@
         <v>62</v>
       </c>
       <c r="B307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C307" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D307" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E307" t="s">
         <v>149</v>
@@ -9625,10 +9622,10 @@
         <v>62</v>
       </c>
       <c r="B308" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D308" t="s">
         <v>174</v>
@@ -9646,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -9654,22 +9651,22 @@
         <v>62</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D309" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F309" t="b">
+        <v>0</v>
+      </c>
+      <c r="H309" t="s">
+        <v>148</v>
+      </c>
+      <c r="I309" t="s">
         <v>257</v>
-      </c>
-      <c r="F309" t="b">
-        <v>0</v>
-      </c>
-      <c r="H309" t="s">
-        <v>148</v>
-      </c>
-      <c r="I309" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -9677,19 +9674,19 @@
         <v>62</v>
       </c>
       <c r="B310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C310" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D310" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F310" t="b">
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -9703,13 +9700,13 @@
         <v>62</v>
       </c>
       <c r="B311" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C311" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D311" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E311" t="s">
         <v>169</v>
@@ -9732,13 +9729,13 @@
         <v>62</v>
       </c>
       <c r="B312" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C312" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D312" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E312" t="s">
         <v>152</v>
@@ -9753,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -9761,10 +9758,10 @@
         <v>62</v>
       </c>
       <c r="B313" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D313" t="s">
         <v>63</v>
@@ -9784,13 +9781,13 @@
         <v>62</v>
       </c>
       <c r="B314" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C314" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D314" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E314" t="s">
         <v>156</v>
@@ -9810,13 +9807,13 @@
         <v>62</v>
       </c>
       <c r="B315" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C315" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D315" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E315" t="s">
         <v>157</v>
@@ -9828,7 +9825,7 @@
         <v>148</v>
       </c>
       <c r="I315" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -9836,13 +9833,13 @@
         <v>50</v>
       </c>
       <c r="B316" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C316" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D316" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -9851,7 +9848,7 @@
         <v>148</v>
       </c>
       <c r="I316" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -9859,13 +9856,13 @@
         <v>50</v>
       </c>
       <c r="B317" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C317" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E317" t="s">
         <v>149</v>
@@ -9882,13 +9879,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B318" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C318" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D318" t="s">
         <v>56</v>
@@ -9900,21 +9897,21 @@
         <v>148</v>
       </c>
       <c r="I318" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B319" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C319" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D319" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -9923,21 +9920,21 @@
         <v>148</v>
       </c>
       <c r="I319" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B320" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C320" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D320" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F320" t="b">
         <v>0</v>
@@ -9946,21 +9943,21 @@
         <v>148</v>
       </c>
       <c r="I320" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B321" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D321" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E321" t="s">
         <v>149</v>
@@ -9980,13 +9977,13 @@
         <v>56</v>
       </c>
       <c r="B322" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C322" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D322" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E322" t="s">
         <v>149</v>
@@ -10006,13 +10003,13 @@
         <v>56</v>
       </c>
       <c r="B323" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C323" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D323" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E323" t="s">
         <v>169</v>
@@ -10035,13 +10032,13 @@
         <v>56</v>
       </c>
       <c r="B324" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C324" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D324" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E324" t="s">
         <v>152</v>
@@ -10056,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -10064,10 +10061,10 @@
         <v>56</v>
       </c>
       <c r="B325" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C325" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D325" t="s">
         <v>63</v>
@@ -10087,13 +10084,13 @@
         <v>56</v>
       </c>
       <c r="B326" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C326" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D326" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E326" t="s">
         <v>156</v>
@@ -10113,13 +10110,13 @@
         <v>56</v>
       </c>
       <c r="B327" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C327" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D327" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E327" t="s">
         <v>157</v>
@@ -10131,44 +10128,44 @@
         <v>148</v>
       </c>
       <c r="I327" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B328" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C328" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F328" t="b">
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H328" t="b">
         <v>1</v>
       </c>
       <c r="I328" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B329" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C329" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D329" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E329" t="s">
         <v>149</v>
@@ -10185,16 +10182,16 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B330" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C330" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D330" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E330" t="s">
         <v>169</v>
@@ -10214,16 +10211,16 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B331" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C331" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D331" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E331" t="s">
         <v>152</v>
@@ -10238,44 +10235,44 @@
         <v>0</v>
       </c>
       <c r="I331" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B332" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C332" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F332" t="b">
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H332" t="b">
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B333" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C333" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D333" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E333" t="s">
         <v>149</v>
@@ -10292,16 +10289,16 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B334" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C334" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D334" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E334" t="s">
         <v>169</v>
@@ -10321,16 +10318,16 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B335" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C335" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D335" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E335" t="s">
         <v>152</v>
@@ -10345,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
